--- a/Data/Distribution of fans in Podlaskie Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Podlaskie Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\podlaskie-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB7813-E19A-43AF-B3E8-DE22624F4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E71DA08-FD69-4BA4-84BE-7BA502B2C8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Klub</t>
   </si>
@@ -209,7 +209,10 @@
     <t>Nowogród (2 000)</t>
   </si>
   <si>
-    <t>Siematycze (13 000)</t>
+    <t>Siematyczne</t>
+  </si>
+  <si>
+    <t>Ciechanowiec (4 000)</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF3022-688A-43D7-9E04-913C6F2260B9}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -931,8 +934,8 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
+      <c r="A2" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -971,7 +974,7 @@
     </row>
     <row r="4" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1011,7 +1014,7 @@
     </row>
     <row r="6" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="9" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="10" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="11" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="12" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="13" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1171,7 +1174,7 @@
     </row>
     <row r="14" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="15" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1211,7 +1214,7 @@
     </row>
     <row r="16" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="17" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="18" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="19" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="20" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1311,7 +1314,7 @@
     </row>
     <row r="21" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="22" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="23" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1371,7 +1374,7 @@
     </row>
     <row r="24" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="25" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="26" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="27" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="28" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="29" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="30" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="31" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="32" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1550,8 +1553,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>42</v>
+      <c r="A33" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1570,6 +1573,9 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2896,6 +2902,9 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
+    <sortCondition ref="A15:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2906,7 +2915,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,7 +6770,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6801,10 +6810,10 @@
       </c>
       <c r="B2" s="6">
         <f>COUNTA('Jagiellonia B.'!A:A) - 1</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>52</v>
@@ -6813,7 +6822,7 @@
         <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
